--- a/Lab04/Lab04Tables.xlsx
+++ b/Lab04/Lab04Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\ECE-425-Mobile-Robotics\Lab04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamantmh\Desktop\Homeworks\ECE-425-Mobile-Robotics\Lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0933DFAC-34A5-4879-AF2F-630D21605973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40D80B-1B94-42AD-8952-9B18A55BACFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{8C22A499-862A-444F-9197-177FF7E6E4A0}"/>
   </bookViews>
@@ -490,9 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819B66F0-BE23-40BC-BC7D-4CF955EC53A8}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -519,29 +517,45 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1">
+        <v>870</v>
+      </c>
+      <c r="C2" s="1">
+        <v>925</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1">
+        <v>610</v>
+      </c>
+      <c r="C3" s="1">
+        <v>770</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1015</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
@@ -588,12 +602,24 @@
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="G8" s="1">
+        <v>940</v>
+      </c>
+      <c r="H8" s="1">
+        <v>915</v>
+      </c>
+      <c r="I8" s="1">
+        <v>905</v>
+      </c>
+      <c r="J8" s="1">
+        <v>935</v>
+      </c>
+      <c r="K8" s="1">
+        <v>945</v>
+      </c>
+      <c r="L8" s="1">
+        <v>965</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
@@ -602,12 +628,24 @@
       <c r="F9" s="1">
         <v>12</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="1">
+        <v>895</v>
+      </c>
+      <c r="H9" s="1">
+        <v>890</v>
+      </c>
+      <c r="I9" s="1">
+        <v>900</v>
+      </c>
+      <c r="J9" s="1">
+        <v>925</v>
+      </c>
+      <c r="K9" s="1">
+        <v>930</v>
+      </c>
+      <c r="L9" s="1">
+        <v>945</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
@@ -616,12 +654,24 @@
       <c r="F10" s="1">
         <v>18</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="G10" s="1">
+        <v>880</v>
+      </c>
+      <c r="H10" s="1">
+        <v>880</v>
+      </c>
+      <c r="I10" s="1">
+        <v>895</v>
+      </c>
+      <c r="J10" s="1">
+        <v>925</v>
+      </c>
+      <c r="K10" s="1">
+        <v>925</v>
+      </c>
+      <c r="L10" s="1">
+        <v>940</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
@@ -630,12 +680,24 @@
       <c r="F11" s="1">
         <v>24</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="G11" s="1">
+        <v>870</v>
+      </c>
+      <c r="H11" s="1">
+        <v>875</v>
+      </c>
+      <c r="I11" s="1">
+        <v>890</v>
+      </c>
+      <c r="J11" s="1">
+        <v>925</v>
+      </c>
+      <c r="K11" s="1">
+        <v>923</v>
+      </c>
+      <c r="L11" s="1">
+        <v>935</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
@@ -644,12 +706,24 @@
       <c r="F12" s="1">
         <v>30</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="G12" s="1">
+        <v>870</v>
+      </c>
+      <c r="H12" s="1">
+        <v>875</v>
+      </c>
+      <c r="I12" s="1">
+        <v>890</v>
+      </c>
+      <c r="J12" s="1">
+        <v>920</v>
+      </c>
+      <c r="K12" s="1">
+        <v>920</v>
+      </c>
+      <c r="L12" s="1">
+        <v>935</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
@@ -658,12 +732,24 @@
       <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="G13" s="1">
+        <v>920</v>
+      </c>
+      <c r="H13" s="1">
+        <v>875</v>
+      </c>
+      <c r="I13" s="1">
+        <v>815</v>
+      </c>
+      <c r="J13" s="1">
+        <v>895</v>
+      </c>
+      <c r="K13" s="1">
+        <v>925</v>
+      </c>
+      <c r="L13" s="1">
+        <v>945</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
@@ -672,12 +758,24 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="G14" s="1">
+        <v>845</v>
+      </c>
+      <c r="H14" s="1">
+        <v>795</v>
+      </c>
+      <c r="I14" s="1">
+        <v>765</v>
+      </c>
+      <c r="J14" s="1">
+        <v>885</v>
+      </c>
+      <c r="K14" s="1">
+        <v>880</v>
+      </c>
+      <c r="L14" s="1">
+        <v>885</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
@@ -686,12 +784,24 @@
       <c r="F15" s="1">
         <v>18</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="G15" s="1">
+        <v>805</v>
+      </c>
+      <c r="H15" s="1">
+        <v>735</v>
+      </c>
+      <c r="I15" s="1">
+        <v>730</v>
+      </c>
+      <c r="J15" s="1">
+        <v>875</v>
+      </c>
+      <c r="K15" s="1">
+        <v>845</v>
+      </c>
+      <c r="L15" s="1">
+        <v>850</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
@@ -700,12 +810,24 @@
       <c r="F16" s="1">
         <v>24</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="G16" s="1">
+        <v>785</v>
+      </c>
+      <c r="H16" s="1">
+        <v>695</v>
+      </c>
+      <c r="I16" s="1">
+        <v>710</v>
+      </c>
+      <c r="J16" s="1">
+        <v>875</v>
+      </c>
+      <c r="K16" s="1">
+        <v>825</v>
+      </c>
+      <c r="L16" s="1">
+        <v>825</v>
+      </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
@@ -714,12 +836,24 @@
       <c r="F17" s="1">
         <v>30</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="G17" s="1">
+        <v>775</v>
+      </c>
+      <c r="H17" s="1">
+        <v>670</v>
+      </c>
+      <c r="I17" s="1">
+        <v>690</v>
+      </c>
+      <c r="J17" s="1">
+        <v>870</v>
+      </c>
+      <c r="K17" s="1">
+        <v>810</v>
+      </c>
+      <c r="L17" s="1">
+        <v>810</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
